--- a/bsni/CCES_ComCon_BSNI.xlsx
+++ b/bsni/CCES_ComCon_BSNI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2afa199259e734/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashle\OneDrive\Desktop\FSU\Network Size\network-size\bsni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{215DAE43-457C-4E8B-B7F6-6D94913584DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{215DAE43-457C-4E8B-B7F6-6D94913584DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8E90586B-AE37-47DE-B4B8-4E47B72B1ED8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{0049D753-B233-431A-9D11-FF4202EB88AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -144,12 +144,110 @@
   <si>
     <t>NewsSource (follow-up)</t>
   </si>
+  <si>
+    <t>urbancity</t>
+  </si>
+  <si>
+    <t>How would you describe the place where you live?</t>
+  </si>
+  <si>
+    <t>1 City
+2 Suburb
+3 Rural
+4 Other</t>
+  </si>
+  <si>
+    <t>No question yet - 
+could be telling of their 
+network size</t>
+  </si>
+  <si>
+    <t>CC20_305</t>
+  </si>
+  <si>
+    <t>Over the past year, have you… (Check all that apply)</t>
+  </si>
+  <si>
+    <t>Married
+Lost A Job
+Finished School
+Retired
+Divorced
+Had A Child
+Taken A New Job
+Traffic ticket
+Been a Victim of a crime
+Visited an Emergency Room
+Visited a Doctor for a regular examination
+Received a Raise at Work
+Had a Pay Cut at Work</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Doesn't address whether they are active typically</t>
+  </si>
+  <si>
+    <t>This is a followup of the 24 hour period, so same issue
+as the original NewsSource Variable</t>
+  </si>
+  <si>
+    <t>marital status, children, school, work</t>
+  </si>
+  <si>
+    <t>Does not directly ask them of any of the four listed question matches, but can potentially address recent changes in these four that may indirectly affect network size</t>
+  </si>
+  <si>
+    <t>CC20_309c</t>
+  </si>
+  <si>
+    <t>1	My hours have been reduced
+2	My hours were reduced, but they have been restored
+3	I have been temporarily laid off
+4	I was temporarily laid off but have now been re-hired
+5	I lost my job
+6	I was not working when the pandemic began</t>
+  </si>
+  <si>
+    <t>How did your work status change this year as a result of the coronavirus pandemic? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC20_361 </t>
+  </si>
+  <si>
+    <t>Residency</t>
+  </si>
+  <si>
+    <t>How long have you lived at your present address?</t>
+  </si>
+  <si>
+    <t>1  Less than 1 month
+2  2 to 6 months
+3  7 to 11 months
+4  1 to 2 years
+5  3 to 4 years
+6  5 or more years
+8 Skipped
+9 Not Asked</t>
+  </si>
+  <si>
+    <t>neighbors</t>
+  </si>
+  <si>
+    <t>Does not address neighbors, but more likely to have 
+neighbors as part of their network if they have lived 
+in their neighborhood longer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +259,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -184,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,6 +297,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D56E50D-917D-4ECD-A94D-0ED837A3602D}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,9 +625,10 @@
     <col min="3" max="3" width="45.90625" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="45.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +647,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -561,86 +670,176 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
+    <row r="6" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
